--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Bulk_Freshwater_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Bulk_Freshwater_mass_flows.xlsx
@@ -475,31 +475,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1.803708004302957E-13</v>
+        <v>1.316854847553777E-32</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.157624289420524E-09</v>
+        <v>2.305324832155347E-28</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.337000988366008E-11</v>
+        <v>3.166366596894044E-30</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.248791666743661E-13</v>
+        <v>3.832048609676356E-32</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.412056139192987E-15</v>
+        <v>6.871573293890415E-34</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>1.717155295651739E-05</v>
+        <v>1.253664268100584E-24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.201708961327428E-09</v>
+        <v>2.337510260043304E-28</v>
       </c>
       <c r="G7">
-        <v>0.04128885715788309</v>
+        <v>3.014425370880675E-21</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0004996923218625215</v>
+        <v>3.648163975323471E-23</v>
       </c>
       <c r="J7">
-        <v>0.000388782860994046</v>
+        <v>2.838433903516922E-23</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1.151870747245699E-12</v>
+        <v>1.416741351442334E-30</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.479459108797559E-05</v>
+        <v>9.19934726287068E-23</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.675972376040287E-11</v>
+        <v>2.061359206047153E-29</v>
       </c>
       <c r="J12">
-        <v>2.871267525749384E-09</v>
+        <v>3.531510323106573E-27</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1.365653779267132E-14</v>
+        <v>1.638217481781733E-31</v>
       </c>
       <c r="D13">
-        <v>1.012100309034227E-14</v>
+        <v>1.21410012167677E-31</v>
       </c>
       <c r="E13">
-        <v>2.95485039148771E-06</v>
+        <v>3.544593542575985E-23</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.98702676907075E-13</v>
+        <v>2.383607060060894E-30</v>
       </c>
       <c r="J13">
-        <v>6.678846539389569E-11</v>
+        <v>8.011842624443985E-28</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>9.635715238831409E-16</v>
+        <v>1.779414845526418E-32</v>
       </c>
       <c r="D14">
-        <v>2.856451765167183E-15</v>
+        <v>5.274971862996913E-32</v>
       </c>
       <c r="E14">
-        <v>1.731358655218185E-05</v>
+        <v>3.197277231284728E-22</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.40199693431638E-14</v>
+        <v>2.589049278097644E-31</v>
       </c>
       <c r="J14">
-        <v>3.095062964999047E-11</v>
+        <v>5.715612023862837E-28</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>6.089639148961049E-17</v>
+        <v>1.80743136489309E-31</v>
       </c>
       <c r="D15">
-        <v>1.534452404970819E-15</v>
+        <v>4.554321425027397E-30</v>
       </c>
       <c r="E15">
-        <v>0.0003358515256451088</v>
+        <v>9.968219241721909E-19</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.860427281547415E-16</v>
+        <v>2.629813324448865E-30</v>
       </c>
       <c r="J15">
-        <v>5.080753435061479E-12</v>
+        <v>1.507989700405344E-26</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.45323586524082E-05</v>
+        <v>3.541060676056039E-22</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>8.971027603582546E-06</v>
+        <v>9.199184275425696E-23</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002009783799765405</v>
+        <v>2.060897853042382E-20</v>
       </c>
       <c r="J17">
-        <v>0.3443982961813745</v>
+        <v>3.531572447118433E-18</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1083,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>2.99478953182358E-06</v>
+        <v>4.095153131117229E-23</v>
       </c>
       <c r="D18">
-        <v>8.877989066620497E-08</v>
+        <v>1.213999325757533E-24</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.592123715409508E-06</v>
+        <v>3.544537416270025E-23</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0001742967963859691</v>
+        <v>2.383379746319185E-21</v>
       </c>
       <c r="J18">
-        <v>0.05859017290970159</v>
+        <v>8.011772697020322E-19</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1121,16 +1121,16 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>2.408919747856843E-07</v>
+        <v>4.448516868456697E-24</v>
       </c>
       <c r="D19">
-        <v>2.856441570845875E-08</v>
+        <v>5.274948874064344E-25</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.731357275947177E-05</v>
+        <v>3.197272160780162E-22</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.401991660317712E-05</v>
+        <v>2.589037495295418E-22</v>
       </c>
       <c r="J19">
-        <v>0.03095062387333488</v>
+        <v>5.715606446096145E-19</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1159,16 +1159,16 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>1.522409682948114E-08</v>
+        <v>4.518578102689286E-23</v>
       </c>
       <c r="D20">
-        <v>1.534452300335678E-08</v>
+        <v>4.554321114465946E-23</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0003358515272697343</v>
+        <v>9.968219289941922E-19</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.860426674566949E-07</v>
+        <v>2.629813144294536E-21</v>
       </c>
       <c r="J20">
-        <v>0.00508075395252156</v>
+        <v>1.507989853989808E-17</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.04192271347960974</v>
+        <v>3.060702083515264E-21</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>6.582460264534145E-05</v>
+        <v>9.956069621431432E-28</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>3.627515632932579E-07</v>
+        <v>2.108104981612279E-28</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2.620067933536155E-11</v>
+        <v>1.362290945511132E-28</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1.341188689881307E-12</v>
+        <v>3.980664161168591E-27</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.04999139595135405</v>
+        <v>8.93797537360159E-19</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>0.01536938214989606</v>
+        <v>1.968839398484176E-19</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>0.008054010452836545</v>
+        <v>1.355181341749697E-19</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>0.001341177712951935</v>
+        <v>3.980673739426102E-18</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.0002717904581710938</v>
+        <v>1.984293364045812E-23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1.806635692091237E-09</v>
+        <v>4.181761399881104E-27</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4.212199543897967E-11</v>
+        <v>1.153368423557145E-27</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1.856019350134514E-11</v>
+        <v>9.418011488820912E-28</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2.117420696716515E-12</v>
+        <v>6.284596650644148E-27</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.2550964233982584</v>
+        <v>2.655694763682091E-18</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.04339779104782544</v>
+        <v>6.067095021796351E-19</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.02291089971079469</v>
+        <v>4.362972810466508E-19</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.00374049285248154</v>
+        <v>1.110194534743045E-17</v>
       </c>
     </row>
     <row r="41" spans="1:5">
